--- a/Gauss/9.3.3/table/table.xlsx
+++ b/Gauss/9.3.3/table/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu\EE23010\Gauss\9.3.3\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3AF61C-6029-49E3-BC7D-52AF58BCE49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3DE06E-594C-463B-83D2-BC554E0D7033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{942915C3-D5FE-4DB4-878C-57D61424E691}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Random Variable</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Value</t>
   </si>
@@ -45,13 +42,40 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Number of cards drawn</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>\frac{1}{4}</t>
+  </si>
+  <si>
+    <t>Drawing a spade card</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>\frac{3}{4}</t>
+  </si>
+  <si>
+    <t>Drawing any other card</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Defective</t>
-  </si>
-  <si>
-    <t>Not Defective</t>
+    <t>{0,1,2,3,4,5}</t>
+  </si>
+  <si>
+    <t>Number of spade cards drawn</t>
   </si>
 </sst>
 </file>
@@ -102,12 +126,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694F0930-C0DC-4D6A-AC1A-DFE58247765F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,39 +466,70 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Gauss/9.3.3/table/table.xlsx
+++ b/Gauss/9.3.3/table/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu\EE23010\Gauss\9.3.3\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3DE06E-594C-463B-83D2-BC554E0D7033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BE146A-A840-406D-A143-2378CDEBBD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{942915C3-D5FE-4DB4-878C-57D61424E691}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Value</t>
   </si>
@@ -54,18 +54,12 @@
     <t>p</t>
   </si>
   <si>
-    <t>\frac{1}{4}</t>
-  </si>
-  <si>
     <t>Drawing a spade card</t>
   </si>
   <si>
     <t>q</t>
   </si>
   <si>
-    <t>\frac{3}{4}</t>
-  </si>
-  <si>
     <t>Drawing any other card</t>
   </si>
   <si>
@@ -76,6 +70,18 @@
   </si>
   <si>
     <t>Number of spade cards drawn</t>
+  </si>
+  <si>
+    <t>\mu =np</t>
+  </si>
+  <si>
+    <t>Mean of Binomial distribution</t>
+  </si>
+  <si>
+    <t>\sigma^2=npq</t>
+  </si>
+  <si>
+    <t>Varience of Binomial distribution</t>
   </si>
 </sst>
 </file>
@@ -126,15 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,14 +457,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,13 +480,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,33 +504,45 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gauss/9.3.3/table/table.xlsx
+++ b/Gauss/9.3.3/table/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu\EE23010\Gauss\9.3.3\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BE146A-A840-406D-A143-2378CDEBBD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F4DAE-8A9F-4753-8E3F-ADDE0C2D23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{942915C3-D5FE-4DB4-878C-57D61424E691}"/>
   </bookViews>
@@ -34,54 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Value</t>
+    <t>Comparison</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Number of spade cards</t>
   </si>
   <si>
-    <t>Parameter</t>
+    <t>Binomial distribution</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Gaussian approximation</t>
   </si>
   <si>
-    <t>Number of cards drawn</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Drawing a spade card</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>Drawing any other card</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>{0,1,2,3,4,5}</t>
-  </si>
-  <si>
-    <t>Number of spade cards drawn</t>
-  </si>
-  <si>
-    <t>\mu =np</t>
-  </si>
-  <si>
-    <t>Mean of Binomial distribution</t>
-  </si>
-  <si>
-    <t>\sigma^2=npq</t>
-  </si>
-  <si>
-    <t>Varience of Binomial distribution</t>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -132,14 +99,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,97 +425,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694F0930-C0DC-4D6A-AC1A-DFE58247765F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.8880000000000002E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ABS(B3-C3)*100/B3</f>
+        <v>60.186879999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.7890625E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.8279999999999997E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D5" si="0">ABS(B4-C4)*100/B4</f>
+        <v>0.44302222222221921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+      <c r="B5" s="1">
+        <v>0.2373046875</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>22.50469135802469</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>